--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2814567.791115806</v>
+        <v>2930001.88185726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>150.145088205776</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>130.1712092340067</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>38.71987512790871</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.42622092126343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.883754775172</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>245.2861618131293</v>
       </c>
       <c r="F5" t="n">
-        <v>188.883754775172</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>166.3688112059715</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>188.883754775172</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>33.3204136236969</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
-        <v>15.1416299551551</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074797</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>188.883754775172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.883754775172</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>33.77465949115959</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>72.89889574100999</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>17.85261942882038</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589156</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>35.60272209001302</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>267.1758329068642</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>252.4929197298495</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>83.58229713275297</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>142.7102789975397</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>126.6623413033684</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.2041656279971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1642910616447</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>21.35866177150488</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.570729811036209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>14.90335196317942</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1208074460232</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.83068150864377</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>28.23631843387907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>106.7037805093899</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>126.4418041083153</v>
+        <v>0.4774956074566125</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>61.62152140683686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>179.8615250417381</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187872</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.959001240238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>98.79136808967674</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>44.30292280757602</v>
       </c>
       <c r="G46" t="n">
-        <v>159.3471710336505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="F2" t="n">
-        <v>293.4024563932559</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262254</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262254</v>
+        <v>540.7559564928858</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097406</v>
+        <v>351.3361714764009</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.361962382226</v>
+        <v>203.0474416122424</v>
       </c>
       <c r="C3" t="n">
-        <v>176.361962382226</v>
+        <v>203.0474416122424</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>54.11303195099117</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>54.11303195099117</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>54.11303195099117</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>54.11303195099117</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>744.6213174316803</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>555.2015324151955</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>555.2015324151955</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>555.2015324151955</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>555.2015324151955</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X3" t="n">
-        <v>365.7817473987108</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.361962382226</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>564.7433476106154</v>
+        <v>670.605514963119</v>
       </c>
       <c r="C5" t="n">
-        <v>564.7433476106154</v>
+        <v>301.6429980227073</v>
       </c>
       <c r="D5" t="n">
-        <v>564.7433476106154</v>
+        <v>301.6429980227073</v>
       </c>
       <c r="E5" t="n">
-        <v>564.7433476106154</v>
+        <v>53.87919821146558</v>
       </c>
       <c r="F5" t="n">
-        <v>373.9516761205426</v>
+        <v>46.9336974622621</v>
       </c>
       <c r="G5" t="n">
-        <v>205.9023718720865</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H5" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I5" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J5" t="n">
-        <v>21.53729092590549</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>81.90760247543693</v>
+        <v>277.9807166746977</v>
       </c>
       <c r="L5" t="n">
-        <v>193.7040741186822</v>
+        <v>521.2049416030761</v>
       </c>
       <c r="M5" t="n">
-        <v>349.7686271398447</v>
+        <v>823.5081935709177</v>
       </c>
       <c r="N5" t="n">
-        <v>512.9722761681895</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>653.7455927875774</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>739.3913607574834</v>
+        <v>1621.822248332758</v>
       </c>
       <c r="Q5" t="n">
-        <v>755.5350191006881</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R5" t="n">
-        <v>755.5350191006881</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="S5" t="n">
-        <v>755.5350191006881</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="T5" t="n">
-        <v>755.5350191006881</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="U5" t="n">
-        <v>755.5350191006881</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="V5" t="n">
-        <v>755.5350191006881</v>
+        <v>1396.839928494313</v>
       </c>
       <c r="W5" t="n">
-        <v>755.5350191006881</v>
+        <v>1044.071273224199</v>
       </c>
       <c r="X5" t="n">
-        <v>755.5350191006881</v>
+        <v>670.605514963119</v>
       </c>
       <c r="Y5" t="n">
-        <v>755.5350191006881</v>
+        <v>670.605514963119</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.2341242192781</v>
+        <v>1077.492353902003</v>
       </c>
       <c r="C6" t="n">
-        <v>372.2341242192781</v>
+        <v>903.039324620876</v>
       </c>
       <c r="D6" t="n">
-        <v>223.2997145580268</v>
+        <v>754.1049149596247</v>
       </c>
       <c r="E6" t="n">
-        <v>64.06225955257133</v>
+        <v>594.8674599541691</v>
       </c>
       <c r="F6" t="n">
-        <v>64.06225955257133</v>
+        <v>594.8674599541691</v>
       </c>
       <c r="G6" t="n">
-        <v>64.06225955257133</v>
+        <v>457.785473068129</v>
       </c>
       <c r="H6" t="n">
-        <v>64.06225955257133</v>
+        <v>360.3406464494812</v>
       </c>
       <c r="I6" t="n">
-        <v>30.40527609429164</v>
+        <v>316.5822112480922</v>
       </c>
       <c r="J6" t="n">
-        <v>15.11070038201376</v>
+        <v>343.6920395792098</v>
       </c>
       <c r="K6" t="n">
-        <v>67.64486236340944</v>
+        <v>468.1818789119408</v>
       </c>
       <c r="L6" t="n">
-        <v>184.6060674208098</v>
+        <v>681.8963720503323</v>
       </c>
       <c r="M6" t="n">
-        <v>340.4511451914207</v>
+        <v>950.6479734536845</v>
       </c>
       <c r="N6" t="n">
-        <v>514.829623354865</v>
+        <v>1240.921274966582</v>
       </c>
       <c r="O6" t="n">
-        <v>652.1320680747608</v>
+        <v>1484.244841159653</v>
       </c>
       <c r="P6" t="n">
-        <v>742.9963185165493</v>
+        <v>1660.200388570843</v>
       </c>
       <c r="Q6" t="n">
-        <v>753.8174671994236</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R6" t="n">
-        <v>753.8174671994236</v>
+        <v>1683.124425635108</v>
       </c>
       <c r="S6" t="n">
-        <v>753.8174671994236</v>
+        <v>1683.124425635108</v>
       </c>
       <c r="T6" t="n">
-        <v>753.8174671994236</v>
+        <v>1487.583807354863</v>
       </c>
       <c r="U6" t="n">
-        <v>563.0257957093509</v>
+        <v>1487.583807354863</v>
       </c>
       <c r="V6" t="n">
-        <v>372.2341242192781</v>
+        <v>1487.583807354863</v>
       </c>
       <c r="W6" t="n">
-        <v>372.2341242192781</v>
+        <v>1487.583807354863</v>
       </c>
       <c r="X6" t="n">
-        <v>372.2341242192781</v>
+        <v>1453.467989687025</v>
       </c>
       <c r="Y6" t="n">
-        <v>372.2341242192781</v>
+        <v>1245.707690922071</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="C7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="D7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="E7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="F7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="G7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J7" t="n">
-        <v>15.11070038201376</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="K7" t="n">
-        <v>15.11070038201376</v>
+        <v>64.2406666257469</v>
       </c>
       <c r="L7" t="n">
-        <v>27.4586366242632</v>
+        <v>132.1299861584115</v>
       </c>
       <c r="M7" t="n">
-        <v>43.73608709747967</v>
+        <v>206.9680378347971</v>
       </c>
       <c r="N7" t="n">
-        <v>67.48402208628178</v>
+        <v>287.8841338195366</v>
       </c>
       <c r="O7" t="n">
-        <v>69.10599484548185</v>
+        <v>342.3101561934716</v>
       </c>
       <c r="P7" t="n">
-        <v>51.07304592748147</v>
+        <v>369.8190495858004</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.07304592748147</v>
+        <v>332.5350520040917</v>
       </c>
       <c r="R7" t="n">
-        <v>51.07304592748147</v>
+        <v>332.5350520040917</v>
       </c>
       <c r="S7" t="n">
-        <v>51.07304592748147</v>
+        <v>332.5350520040917</v>
       </c>
       <c r="T7" t="n">
-        <v>51.07304592748147</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="U7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="V7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="W7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="X7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.11070038201376</v>
+        <v>108.1933045400001</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1887.813801820605</v>
+        <v>1049.412001754765</v>
       </c>
       <c r="C8" t="n">
-        <v>1887.813801820605</v>
+        <v>1049.412001754765</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>691.146303148015</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>305.3580505497708</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.4125498005673</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>1436.011841818887</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>671.6177418305251</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>522.6833321692739</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1047.593377615547</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1047.593377615547</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>839.8330788505932</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>792.9452469258936</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="U10" t="n">
-        <v>503.8423800515371</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="V10" t="n">
-        <v>503.8423800515371</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="W10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="X10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>187.5209935053049</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,19 +5287,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151475</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872407</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>642.3917942749049</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>494.4787006925118</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>108.8705539198703</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588917</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P24" t="n">
-        <v>2387.388512467612</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6254,13 +6256,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2232.33506728162</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.981709809275</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.981709809275</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>2877.307316025034</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651586</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>4102.283767206192</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4567.392820864486</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4347.791355887427</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4058.716129231625</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3804.031641025738</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3804.031641025738</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3576.042090127721</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3355.249510984191</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,25 +6484,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>3006.404946868831</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>3006.404946868831</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773688</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>3636.835541740618</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>3408.845990842601</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>3188.053411699071</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2252.19838578386</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T34" t="n">
-        <v>2252.19838578386</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.123159128057</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.43867092217</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>527.7722521572603</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>379.8591585748671</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>379.8591585748671</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2265.284775457293</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2045.683310480234</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1756.608083824432</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1501.923595618545</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7153,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7202,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,16 +7447,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7497,19 +7499,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>432.9862109052757</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.4916164683283</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C46" t="n">
-        <v>923.4916164683283</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D46" t="n">
-        <v>773.3749770559925</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E46" t="n">
-        <v>625.4618834735994</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F46" t="n">
-        <v>478.571935975689</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.4203622904501</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>66.3624843553861</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.1956044930008</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>179.8192178272011</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.58448189332931</v>
+        <v>180.548790394188</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>103.902616885432</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>1.164760959906488</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>126.9182872993604</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="G46" t="n">
-        <v>6.176967258618305</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>1503.414218519544</v>
+        <v>270592.362025312</v>
       </c>
       <c r="D3" t="n">
-        <v>662166.6844385734</v>
+        <v>115410.0540231931</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>601443.2075742655</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>349.548881155014</v>
+        <v>62913.63765881962</v>
       </c>
       <c r="L3" t="n">
-        <v>162615.4473694186</v>
+        <v>27875.253621975</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>278136.7270444452</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26439,10 +26441,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26454,7 +26456,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>57093.86446622577</v>
+        <v>76435.73471936816</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819483</v>
+        <v>-228993.7633819481</v>
       </c>
       <c r="C6" t="n">
-        <v>361151.4986554499</v>
+        <v>144252.9847136142</v>
       </c>
       <c r="D6" t="n">
-        <v>-165811.8647193784</v>
+        <v>323073.3784166779</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333511</v>
+        <v>-32537.71163355882</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.495940706</v>
+        <v>568905.4959407067</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407066</v>
+        <v>568905.4959407065</v>
       </c>
       <c r="H6" t="n">
+        <v>568905.4959407063</v>
+      </c>
+      <c r="I6" t="n">
         <v>568905.4959407065</v>
       </c>
-      <c r="I6" t="n">
-        <v>568905.4959407062</v>
-      </c>
       <c r="J6" t="n">
-        <v>519840.5512121618</v>
+        <v>519840.5512121617</v>
       </c>
       <c r="K6" t="n">
-        <v>568555.9470595514</v>
+        <v>505991.8582818867</v>
       </c>
       <c r="L6" t="n">
-        <v>406290.0485712879</v>
+        <v>541030.2423187314</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.4680051946</v>
+        <v>411759.1153891083</v>
       </c>
       <c r="N6" t="n">
         <v>568905.4959407063</v>
       </c>
       <c r="O6" t="n">
+        <v>568905.4959407065</v>
+      </c>
+      <c r="P6" t="n">
         <v>568905.4959407066</v>
-      </c>
-      <c r="P6" t="n">
-        <v>568905.4959407062</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6390906373997</v>
+        <v>758.8996292950615</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>188.883754775172</v>
+        <v>431.9757039594709</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>1.169149724495128</v>
+        <v>210.4296883821567</v>
       </c>
       <c r="D3" t="n">
-        <v>540.1376099558986</v>
+        <v>94.81103524262267</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>514.2648358039901</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>1.358167608852114</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="D4" t="n">
-        <v>642.5177006271206</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608851971</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271206</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>1.358167608852114</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="L4" t="n">
-        <v>642.5177006271206</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>262.952745024282</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>120.9980513310236</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>62.12188222283099</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>144.3440237696862</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681313</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459954</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715755</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>4.854053373819482</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.4763161647542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>193.8500868883085</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>136.6442082591325</v>
       </c>
       <c r="F5" t="n">
-        <v>217.9922909665394</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>246.7243219246916</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>127.9619364381217</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>125.2901165380507</v>
+        <v>92.85788772760043</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.78647639804544</v>
+        <v>23.94240680425912</v>
       </c>
       <c r="S5" t="n">
-        <v>158.6687096750906</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4233063711054</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1688845570787</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1612745908962</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8174699196705</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.49756202249566</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.27675899167119</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7235338505417</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3994614844842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.97984818920315</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>43.91683237425323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>171.9983257123179</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>75.71657727720236</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9998268999323</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4149261034498</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>125.643817356299</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>56.92094262157551</v>
+        <v>30.24193919304051</v>
       </c>
       <c r="K7" t="n">
-        <v>13.85936344355233</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.50949894319849</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.7275726510616</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7435138279248</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7106652873048</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>250.6622444051037</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50720871381873</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>159.3778151137773</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27947,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>168.1126860281666</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>23.7412221133921</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>92.8866079728008</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.028473857802275e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29575,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31042,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.209604384471957</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>22.62911090247344</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>85.1857730323552</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5374101265769</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>281.0699637212749</v>
+        <v>388.0799144520269</v>
       </c>
       <c r="L5" t="n">
-        <v>348.6921439025587</v>
+        <v>481.4474502511776</v>
       </c>
       <c r="M5" t="n">
-        <v>387.9871958749118</v>
+        <v>535.7030533968099</v>
       </c>
       <c r="N5" t="n">
-        <v>394.2652343322928</v>
+        <v>544.3712888610696</v>
       </c>
       <c r="O5" t="n">
-        <v>372.2934807341997</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>317.7438724925482</v>
+        <v>438.7164434860963</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.6124154736462</v>
+        <v>329.4577782634656</v>
       </c>
       <c r="R5" t="n">
-        <v>138.7990614160867</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>50.35135991115477</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>9.672543193025996</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1767683507577565</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182242572314407</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>11.41797431682599</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>40.70440435380744</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>111.6959967115116</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>190.9062490565769</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>256.6970111509856</v>
+        <v>354.4276051721889</v>
       </c>
       <c r="M6" t="n">
-        <v>299.5533043973828</v>
+        <v>413.6002979658085</v>
       </c>
       <c r="N6" t="n">
-        <v>307.4815890161054</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>281.2855825453493</v>
+        <v>388.3776244374453</v>
       </c>
       <c r="P6" t="n">
-        <v>225.756478567652</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.9122273010461</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>73.40274497229277</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9596372532961</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>4.765267210337454</v>
+        <v>6.57951659737888</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07777911659963206</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9911524585264584</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>8.812246403989791</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>29.80665757095932</v>
+        <v>41.15475366734531</v>
       </c>
       <c r="J7" t="n">
-        <v>70.07447881782061</v>
+        <v>96.7534822463556</v>
       </c>
       <c r="K7" t="n">
-        <v>115.1538947269831</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>147.3573391521973</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>155.3676531124702</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>151.6733575852353</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>140.0948947742671</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8753846203272</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99550268624735</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>44.56581872610784</v>
+        <v>61.5330748605471</v>
       </c>
       <c r="S7" t="n">
-        <v>17.27308420904745</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>4.234924140976685</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05406286137417052</v>
+        <v>0.07464586517656351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>382.6869096644251</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>379.5002789321571</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.7358547888808</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>307.3280120589134</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028583</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>545.9074025036812</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>764.2478901092629</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.491505599890644</v>
+        <v>77.891411701984</v>
       </c>
       <c r="K5" t="n">
-        <v>60.98011267629437</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>112.9257289325714</v>
+        <v>245.6810352811904</v>
       </c>
       <c r="M5" t="n">
-        <v>157.640962647639</v>
+        <v>305.3568201695372</v>
       </c>
       <c r="N5" t="n">
-        <v>164.8521707357019</v>
+        <v>314.9582252644787</v>
       </c>
       <c r="O5" t="n">
-        <v>142.195269312513</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>86.51087673727869</v>
+        <v>207.4834477308268</v>
       </c>
       <c r="Q5" t="n">
-        <v>16.30672559919671</v>
+        <v>107.1520883890161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.38366498092691</v>
       </c>
       <c r="K6" t="n">
-        <v>53.06481008221786</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>118.1426313711115</v>
+        <v>215.8732253923147</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4192704753645</v>
+        <v>271.4662640437901</v>
       </c>
       <c r="N6" t="n">
-        <v>176.1398769327721</v>
+        <v>293.2053550635333</v>
       </c>
       <c r="O6" t="n">
-        <v>138.6893381009048</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>91.78207115332174</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.93045321502456</v>
+        <v>68.38629016872821</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>29.98243465554467</v>
       </c>
       <c r="L7" t="n">
-        <v>12.47266287095903</v>
+        <v>68.57507023501475</v>
       </c>
       <c r="M7" t="n">
-        <v>16.44186916486512</v>
+        <v>75.59399159230875</v>
       </c>
       <c r="N7" t="n">
-        <v>23.98781312000213</v>
+        <v>81.73343028761562</v>
       </c>
       <c r="O7" t="n">
-        <v>1.638356322424301</v>
+        <v>54.97578017569194</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>244.1325298845509</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.3462379728918</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.7540807028583389</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>403.7733685816629</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>632.9061780259296</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2930001.88185726</v>
+        <v>2925696.758860191</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>130.1712092340067</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>150.1450882057759</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>41.23571261572003</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>38.71987512790871</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>245.2861618131293</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>229.331665097069</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>10.65708712639937</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074797</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>33.77465949115959</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>72.89889574100999</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589156</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>40.05337266685296</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>269.3968352920047</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>252.4929197298495</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>83.58229713275297</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>137.3654273328425</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>142.7102789975397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>110.1444095748049</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1642910616447</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>21.35866177150488</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>251.2117044543522</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>14.90335196317942</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5005260950196</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.83068150864377</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="W31" t="n">
-        <v>106.7037805093899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4774956074566125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>179.8615250417381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>73.9322284908373</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187872</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>98.79136808967674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44.30292280757602</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764009</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764009</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764009</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764009</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271974</v>
+        <v>331.160536151381</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513812</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="U2" t="n">
-        <v>540.7559564928858</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="V2" t="n">
-        <v>540.7559564928858</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="W2" t="n">
-        <v>351.3361714764009</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764009</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3361714764009</v>
+        <v>520.5803211678658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122424</v>
+        <v>392.4672266287268</v>
       </c>
       <c r="C3" t="n">
-        <v>203.0474416122424</v>
+        <v>218.0141973475998</v>
       </c>
       <c r="D3" t="n">
-        <v>54.11303195099117</v>
+        <v>176.361962382226</v>
       </c>
       <c r="E3" t="n">
-        <v>54.11303195099117</v>
+        <v>176.361962382226</v>
       </c>
       <c r="F3" t="n">
-        <v>54.11303195099117</v>
+        <v>176.361962382226</v>
       </c>
       <c r="G3" t="n">
-        <v>54.11303195099117</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487954</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323105</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323105</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.605514963119</v>
+        <v>988.5358006705496</v>
       </c>
       <c r="C5" t="n">
-        <v>301.6429980227073</v>
+        <v>988.5358006705496</v>
       </c>
       <c r="D5" t="n">
-        <v>301.6429980227073</v>
+        <v>988.5358006705496</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146558</v>
+        <v>988.5358006705496</v>
       </c>
       <c r="F5" t="n">
-        <v>46.9336974622621</v>
+        <v>577.5498958809421</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675768</v>
+        <v>345.9017493182462</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746977</v>
+        <v>277.9807166746991</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030761</v>
+        <v>521.2049416030783</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709177</v>
+        <v>823.5081935709206</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837884</v>
+        <v>1586.994975598236</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837884</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837884</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.839928494313</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.071273224199</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="X5" t="n">
-        <v>670.605514963119</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.605514963119</v>
+        <v>1375.135640734671</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1077.492353902003</v>
+        <v>674.482242708817</v>
       </c>
       <c r="C6" t="n">
-        <v>903.039324620876</v>
+        <v>500.02921342769</v>
       </c>
       <c r="D6" t="n">
-        <v>754.1049149596247</v>
+        <v>351.0948037664388</v>
       </c>
       <c r="E6" t="n">
-        <v>594.8674599541691</v>
+        <v>191.8573487609833</v>
       </c>
       <c r="F6" t="n">
-        <v>594.8674599541691</v>
+        <v>45.32279078786823</v>
       </c>
       <c r="G6" t="n">
-        <v>457.785473068129</v>
+        <v>45.32279078786823</v>
       </c>
       <c r="H6" t="n">
-        <v>360.3406464494812</v>
+        <v>45.32279078786823</v>
       </c>
       <c r="I6" t="n">
-        <v>316.5822112480922</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>343.6920395792098</v>
+        <v>61.66788464787557</v>
       </c>
       <c r="K6" t="n">
-        <v>468.1818789119408</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>681.8963720503323</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>950.6479734536845</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>1240.921274966582</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.244841159653</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1660.200388570843</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1727.902815837884</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1683.124425635108</v>
+        <v>1401.100270703776</v>
       </c>
       <c r="S6" t="n">
-        <v>1683.124425635108</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="T6" t="n">
-        <v>1487.583807354863</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="U6" t="n">
-        <v>1487.583807354863</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="V6" t="n">
-        <v>1487.583807354863</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="W6" t="n">
-        <v>1487.583807354863</v>
+        <v>1258.309378699372</v>
       </c>
       <c r="X6" t="n">
-        <v>1453.467989687025</v>
+        <v>1050.457878493839</v>
       </c>
       <c r="Y6" t="n">
-        <v>1245.707690922071</v>
+        <v>842.6975797288851</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="C7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675768</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675768</v>
+        <v>181.4480038146681</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.2406666257469</v>
+        <v>64.24066662574714</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584115</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347971</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195366</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934716</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858004</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040917</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040917</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="T7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="V7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.1933045400001</v>
+        <v>329.3610973970613</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1049.412001754765</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.412001754765</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="D8" t="n">
-        <v>691.146303148015</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>305.3580505497708</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>298.4125498005673</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4804,19 +4804,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1826.151173794699</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1826.151173794699</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1826.151173794699</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1826.151173794699</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1436.011841818887</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>671.6177418305251</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>671.6177418305251</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1047.593377615547</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1047.593377615547</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>839.8330788505932</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>187.5209935053049</v>
+        <v>358.7134696495909</v>
       </c>
       <c r="D10" t="n">
-        <v>187.5209935053049</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="E10" t="n">
-        <v>187.5209935053049</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
-        <v>187.5209935053049</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126813</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5209935053049</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,10 +5059,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096652</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>205.0736424164617</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690901</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,43 +5266,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.711884091971</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>545.3854261579756</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>397.4723325755825</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>250.5823850776722</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>250.5823850776722</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>108.8705539198703</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310363</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.44695754965</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732377</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>189.0729639753273</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6256,13 +6256,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2232.33506728162</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.981709809275</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.981709809275</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2877.307316025034</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3474.685803651586</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>4102.283767206192</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153951</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741615</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4567.392820864486</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4347.791355887427</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4058.716129231625</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3804.031641025738</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3804.031641025738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3576.042090127721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3355.249510984191</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3006.404946868831</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868831</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456495</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3636.835541740618</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3408.845990842601</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3188.053411699071</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1098.667160263527</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2265.284775457293</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2045.683310480234</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1756.608083824432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.923595618545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7253,22 +7253,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>397.4723325755821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>250.5823850776717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>250.5823850776717</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7447,16 +7447,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>677.474817503733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>529.5617239213399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>30.15030327141893</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.4203622904501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>127.2568112467075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.3624843553861</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.1956044930008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>75.37549921168727</v>
       </c>
       <c r="W31" t="n">
-        <v>179.8192178272011</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.164760959906488</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>66.36248435538658</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>101.1181252153552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463131</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="G2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025312</v>
+        <v>270592.3620253133</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231931</v>
+        <v>115410.0540231921</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.9447285446</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881962</v>
+        <v>62913.63765882012</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.253621975</v>
+        <v>27875.25362197471</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189194</v>
+      </c>
+      <c r="F4" t="n">
         <v>16046.58397189193</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26456,7 +26456,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936825</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.7633819481</v>
+        <v>-228993.763381948</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136142</v>
+        <v>144252.984713613</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166779</v>
+        <v>323073.3784166789</v>
       </c>
       <c r="E6" t="n">
-        <v>-32537.71163355882</v>
+        <v>-32885.09088791575</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407067</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407063</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="J6" t="n">
-        <v>519840.5512121617</v>
+        <v>519493.1719578049</v>
       </c>
       <c r="K6" t="n">
-        <v>505991.8582818867</v>
+        <v>505644.4790275293</v>
       </c>
       <c r="L6" t="n">
-        <v>541030.2423187314</v>
+        <v>540682.863064375</v>
       </c>
       <c r="M6" t="n">
-        <v>411759.1153891083</v>
+        <v>411411.7361347515</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407063</v>
+        <v>568558.1166863494</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863495</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950615</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594709</v>
+        <v>431.975703959472</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26801,13 +26801,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821567</v>
+        <v>210.4296883821577</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262267</v>
+        <v>94.81103524262187</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.450116793152</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="E4" t="n">
         <v>630.5933313734854</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666925</v>
+        <v>110.1392527666915</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931509</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666912</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734854</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>120.9980513310236</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>236.0928504502777</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>106.2093529489187</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>62.12188222283099</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="4">
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>4.854053373819482</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625595</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>136.6442082591325</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>182.9202196369804</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760043</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425912</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>32.66376372297573</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>171.9983257123179</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>75.71657727720236</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304051</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>75.70694384976937</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>85.2862063286783</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>159.3778151137773</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>117.2980339485929</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>168.1126860281666</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>29.88139376578533</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.7412221133921</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29274,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.028473857802275e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-4.625246081245389e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511776</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968099</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860963</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737888</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734531</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463556</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,34 +31840,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>382.6869096644251</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2764607028583</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>545.9074025036812</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33973,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.891411701984</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695372</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092691</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437901</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872821</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554467</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501475</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230875</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761562</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569194</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>244.1325298845509</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7540807028583389</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>479.7503686470593</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>403.7733685816629</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37621,7 +37621,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2925696.758860191</v>
+        <v>2927457.289162976</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8568226.843312068</v>
+        <v>8568226.843312066</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>68.1169391876612</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.1450882057759</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>41.23571261572003</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>90.20433741186739</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>229.331665097069</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>99.09630255535963</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>132.9688202416137</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.65708712639937</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
-        <v>40.05337266685296</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>46.17063318532811</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>269.3968352920047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>76.37263648018703</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>20.27697994470635</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>83.83369232361771</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>156.2886548806406</v>
       </c>
       <c r="C10" t="n">
-        <v>137.3654273328425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1444095748049</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>191.9440058362645</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576147</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>47.84205650382022</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,13 +2371,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.5005260950196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>40.62253010341743</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>176.7621441121407</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766816</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>201.6887504327734</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189056</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5803211678658</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5803211678658</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5803211678658</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>520.5803211678658</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>331.160536151381</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.242026426225</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.5803211678658</v>
+        <v>482.8222414097403</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4672266287268</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="C3" t="n">
-        <v>218.0141973475998</v>
+        <v>575.6493193841524</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>426.7149097229011</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>267.4774547174456</v>
       </c>
       <c r="F3" t="n">
         <v>176.361962382226</v>
@@ -4412,49 +4412,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487948</v>
+        <v>750.1023486652794</v>
       </c>
     </row>
     <row r="4">
@@ -4494,46 +4494,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.5358006705496</v>
+        <v>826.8821191922815</v>
       </c>
       <c r="C5" t="n">
-        <v>988.5358006705496</v>
+        <v>457.9196022518698</v>
       </c>
       <c r="D5" t="n">
-        <v>988.5358006705496</v>
+        <v>457.9196022518698</v>
       </c>
       <c r="E5" t="n">
-        <v>988.5358006705496</v>
+        <v>457.9196022518698</v>
       </c>
       <c r="F5" t="n">
-        <v>577.5498958809421</v>
+        <v>450.9741015026663</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182462</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746991</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030783</v>
+        <v>521.2049416030777</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709206</v>
+        <v>823.5081935709204</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079243</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332762</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837888</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837888</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598236</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="T5" t="n">
-        <v>1375.135640734671</v>
+        <v>1703.718566540659</v>
       </c>
       <c r="U5" t="n">
-        <v>1375.135640734671</v>
+        <v>1603.621291232215</v>
       </c>
       <c r="V5" t="n">
-        <v>1375.135640734671</v>
+        <v>1603.621291232215</v>
       </c>
       <c r="W5" t="n">
-        <v>1375.135640734671</v>
+        <v>1603.621291232215</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.135640734671</v>
+        <v>1603.621291232215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.135640734671</v>
+        <v>1213.481959256403</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>674.482242708817</v>
+        <v>841.7878830770892</v>
       </c>
       <c r="C6" t="n">
-        <v>500.02921342769</v>
+        <v>667.3348537959622</v>
       </c>
       <c r="D6" t="n">
-        <v>351.0948037664388</v>
+        <v>518.4004441347109</v>
       </c>
       <c r="E6" t="n">
-        <v>191.8573487609833</v>
+        <v>359.1629891292554</v>
       </c>
       <c r="F6" t="n">
-        <v>45.32279078786823</v>
+        <v>212.6284311561404</v>
       </c>
       <c r="G6" t="n">
-        <v>45.32279078786823</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="H6" t="n">
-        <v>45.32279078786823</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787557</v>
+        <v>61.66788464787575</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699372</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.309378699372</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.309378699372</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="V6" t="n">
-        <v>1258.309378699372</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="W6" t="n">
-        <v>1258.309378699372</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="X6" t="n">
-        <v>1050.457878493839</v>
+        <v>1217.763518862111</v>
       </c>
       <c r="Y6" t="n">
-        <v>842.6975797288851</v>
+        <v>1010.003220097157</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.3610973970613</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="C7" t="n">
-        <v>329.3610973970613</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970613</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146681</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675776</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675776</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675776</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675776</v>
+        <v>65.10546964306114</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675776</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="R7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="S7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="T7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="U7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="V7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="W7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040944</v>
       </c>
       <c r="X7" t="n">
-        <v>329.3610973970613</v>
+        <v>285.8980487865912</v>
       </c>
       <c r="Y7" t="n">
-        <v>329.3610973970613</v>
+        <v>65.10546964306114</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.4233539899546</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="C8" t="n">
-        <v>334.4233539899546</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="D8" t="n">
         <v>62.30533854348519</v>
@@ -4807,7 +4807,7 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
         <v>669.5878927711874</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1197.310209190169</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540764</v>
+        <v>807.1708772143575</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,22 +4901,22 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="V9" t="n">
         <v>1510.593141177798</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>362.4220188783357</v>
       </c>
       <c r="C10" t="n">
-        <v>358.7134696495909</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D10" t="n">
-        <v>208.5968302372552</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>205.0736424164617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1466.014387565344</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,25 +5527,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5892,19 +5892,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>134.8495217382925</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7551,22 +7551,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,7 +7681,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>30.15030327141893</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.76564955277266</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>100.7734165143921</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>40.64330621514811</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>75.37549921168727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194628</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.89590291932143</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463131</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741680.5388463131</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846405</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253133</v>
+        <v>270592.3620253143</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231921</v>
+        <v>115410.0540231911</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>62913.63765882012</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197471</v>
+        <v>27875.25362197443</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26420,25 +26420,25 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26456,7 +26456,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936831</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228993.763381948</v>
+        <v>-228993.7633819481</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.984713613</v>
+        <v>144252.9847136121</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166789</v>
+        <v>323073.3784166799</v>
       </c>
       <c r="E6" t="n">
-        <v>-32885.09088791575</v>
+        <v>-32572.44955899428</v>
       </c>
       <c r="F6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152705</v>
       </c>
       <c r="G6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="H6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="I6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="J6" t="n">
-        <v>519493.1719578049</v>
+        <v>519805.813286726</v>
       </c>
       <c r="K6" t="n">
-        <v>505644.4790275293</v>
+        <v>505957.1203564507</v>
       </c>
       <c r="L6" t="n">
-        <v>540682.863064375</v>
+        <v>540995.5043932965</v>
       </c>
       <c r="M6" t="n">
-        <v>411411.7361347515</v>
+        <v>411724.3774636728</v>
       </c>
       <c r="N6" t="n">
-        <v>568558.1166863494</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="O6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152713</v>
       </c>
       <c r="P6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152708</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959472</v>
+        <v>431.9757039594725</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.016897076984856e-14</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821577</v>
+        <v>210.4296883821586</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.81103524262096</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039895</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666915</v>
+        <v>110.1392527666903</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793152</v>
+        <v>244.4501167931527</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666912</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>314.6169024758194</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>236.0928504502777</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>106.2093529489187</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>54.86487498151649</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.616033927503</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625595</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>182.9202196369804</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>152.00528212999</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>2.742346775566006</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>32.66376372297573</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.70694384976937</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,7 +27830,7 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>179.539022203709</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>85.2862063286783</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>293.358464198282</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>117.2980339485929</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
@@ -27991,7 +27991,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>148.9668948258076</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>23.54332530129673</v>
       </c>
       <c r="C10" t="n">
-        <v>29.88139376578533</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.666437783848331e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28326,10 +28326,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.3639153663441e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-4.625246081245389e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>171.7382405950817</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066265</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>37.7638331807514</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998946</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
